--- a/Interview-Guide.xlsx
+++ b/Interview-Guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Topic</t>
   </si>
@@ -63,10 +63,20 @@
     <t xml:space="preserve"> Implementation</t>
   </si>
   <si>
-    <t>O(n) for search and insertion</t>
-  </si>
-  <si>
     <t>O(n) worst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linkedlist - double </t>
+  </si>
+  <si>
+    <t>Same as the single but have refeence for both previous and next node</t>
+  </si>
+  <si>
+    <t>O(n) for search and access
+O(1) for insertion and deletion</t>
+  </si>
+  <si>
+    <t>List can extended from both the sided</t>
   </si>
 </sst>
 </file>
@@ -152,12 +162,12 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -166,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,7 +464,7 @@
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,259 +478,269 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="29.140625" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="6:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F4" s="3" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="6:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="6:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L2:M3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Interview-Guide.xlsx
+++ b/Interview-Guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Topic</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Key points</t>
   </si>
   <si>
-    <t>Link Ref</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Structure </t>
   </si>
   <si>
@@ -55,12 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic sizing over array, no random acces is possible so </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theory </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Implementation</t>
   </si>
   <si>
     <t>O(n) worst</t>
@@ -77,14 +68,63 @@
   </si>
   <si>
     <t>List can extended from both the sided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting algorithm </t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Each element of the array compared with rest of the element</t>
+  </si>
+  <si>
+    <r>
+      <t>O(n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) for sorting</t>
+    </r>
+  </si>
+  <si>
+    <t>space O(1)</t>
+  </si>
+  <si>
+    <t>selection sort nevertakes more then O(n2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -167,16 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,12 +496,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:M22"/>
+  <dimension ref="E2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,265 +514,228 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="29.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+    </row>
+    <row r="3" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="6:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="6:11" ht="60" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
+    </row>
+    <row r="5" spans="6:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="6:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L2:M3"/>
+  <mergeCells count="5">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
@@ -743,5 +743,6 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Interview-Guide.xlsx
+++ b/Interview-Guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Topic</t>
   </si>
@@ -109,6 +109,25 @@
   </si>
   <si>
     <t>selection sort nevertakes more then O(n2)</t>
+  </si>
+  <si>
+    <t>Bubble sort</t>
+  </si>
+  <si>
+    <t>pair are compared and sawped for sorting</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>First in Last out
+Last in first out</t>
+  </si>
+  <si>
+    <t>For balancing eqaution it can be used.</t>
   </si>
 </sst>
 </file>
@@ -207,13 +226,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,10 +517,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,34 +536,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="6:11" ht="60" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
@@ -607,20 +626,42 @@
       </c>
     </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+    <row r="8" spans="6:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>

--- a/Interview-Guide.xlsx
+++ b/Interview-Guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Topic</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>For balancing eqaution it can be used.</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>First in First out</t>
+  </si>
+  <si>
+    <t>Used for updating problem</t>
   </si>
 </sst>
 </file>
@@ -518,9 +527,9 @@
   <dimension ref="E2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,13 +672,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+    <row r="9" spans="6:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>

--- a/Interview-Guide.xlsx
+++ b/Interview-Guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Topic</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>Used for updating problem</t>
+  </si>
+  <si>
+    <t>BinaryTree</t>
+  </si>
+  <si>
+    <t>Root node with left and right node attached to it.</t>
+  </si>
+  <si>
+    <t>O(n) Worst cases</t>
+  </si>
+  <si>
+    <t>Update and dynamic adding problems</t>
   </si>
 </sst>
 </file>
@@ -529,7 +541,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,13 +704,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+    <row r="10" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>

--- a/Interview-Guide.xlsx
+++ b/Interview-Guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Topic</t>
   </si>
@@ -149,6 +149,19 @@
   </si>
   <si>
     <t>Update and dynamic adding problems</t>
+  </si>
+  <si>
+    <t>Priority Queue</t>
+  </si>
+  <si>
+    <t>Appeded with the priority</t>
+  </si>
+  <si>
+    <t>O(logn) for deletion
+O(n) for search and acess</t>
+  </si>
+  <si>
+    <t>O(n)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +554,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,12 +737,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+    <row r="11" spans="6:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="6:11" x14ac:dyDescent="0.25">
